--- a/Example_input_data/example_moraine_input.xlsx
+++ b/Example_input_data/example_moraine_input.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\RSJ\Age_Calcs\CRYONUS\CRYONUS_v0.1\Example_input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fbkl16/Documents/Work/iceTEA/iceTEA_v0.7/Example_input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D23E635-2694-1745-81B6-4F4FC147B78E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="11840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="1" r:id="rId1"/>
@@ -95,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode=";;"/>
@@ -169,7 +170,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -446,34 +447,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16" width="16.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="16.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
@@ -520,7 +520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -567,7 +567,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -614,7 +614,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -661,7 +661,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -708,7 +708,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -755,7 +755,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -802,26 +802,26 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>

--- a/Example_input_data/example_moraine_input.xlsx
+++ b/Example_input_data/example_moraine_input.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fbkl16/Documents/Work/iceTEA/iceTEA_v0.7/Example_input_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\RSJ\Age_Calcs\iceTEA\iceTEA_v0.8\Example_input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D23E635-2694-1745-81B6-4F4FC147B78E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="11840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="1" r:id="rId1"/>
@@ -48,9 +47,6 @@
     <t>10-Be conc. 1 sigma (atoms/g)</t>
   </si>
   <si>
-    <t>26-Be conc. 1 sigma (atoms/g)</t>
-  </si>
-  <si>
     <t>Sample name</t>
   </si>
   <si>
@@ -91,12 +87,15 @@
   </si>
   <si>
     <t>Elevation uncertainty (m) - zero if unknown</t>
+  </si>
+  <si>
+    <t>26-Al conc. 1 sigma (atoms/g)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode=";;"/>
@@ -170,7 +169,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -447,53 +446,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="16.1640625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.1640625" style="1"/>
+    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" customWidth="1"/>
+    <col min="14" max="15" width="16.140625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>0</v>
@@ -511,18 +510,18 @@
         <v>6</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="10">
         <v>-43.377130000000001</v>
@@ -540,7 +539,7 @@
         <v>0.6</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="4">
         <v>1.99</v>
@@ -567,9 +566,9 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="10">
         <v>-43.374110000000002</v>
@@ -587,7 +586,7 @@
         <v>0.6</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="4">
         <v>3.35</v>
@@ -614,9 +613,9 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="10">
         <v>-43.370019999999997</v>
@@ -634,7 +633,7 @@
         <v>0.6</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="4">
         <v>4.17</v>
@@ -661,9 +660,9 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="11">
         <v>-43.369770000000003</v>
@@ -681,7 +680,7 @@
         <v>0.6</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="1">
         <v>2.92</v>
@@ -708,9 +707,9 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="11">
         <v>-43.373309999999996</v>
@@ -728,7 +727,7 @@
         <v>0.6</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1">
         <v>1.37</v>
@@ -755,9 +754,9 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="11">
         <v>-43.373750000000001</v>
@@ -775,7 +774,7 @@
         <v>0.6</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="1">
         <v>2.5</v>
@@ -802,26 +801,26 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
